--- a/server/xlsx/3-2.xlsx
+++ b/server/xlsx/3-2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28020" windowHeight="13200"/>
+    <workbookView windowWidth="27900" windowHeight="13040"/>
   </bookViews>
   <sheets>
-    <sheet name="口碑评分排行榜" sheetId="9" r:id="rId1"/>
+    <sheet name="口碑召回" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,20 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -98,6 +84,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -108,6 +108,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -115,30 +131,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,60 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,181 +221,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -442,30 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -473,21 +488,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,124 +511,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,16 +637,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,7 +990,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>47</v>
+        <v>47345</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>78</v>
+        <v>78354</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>88</v>
+        <v>88325</v>
       </c>
     </row>
   </sheetData>

--- a/server/xlsx/3-2.xlsx
+++ b/server/xlsx/3-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13040"/>
+    <workbookView windowWidth="27880" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="口碑召回" sheetId="9" r:id="rId1"/>
@@ -14,21 +14,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>品牌</t>
   </si>
   <si>
-    <t>召回率(*100)</t>
-  </si>
-  <si>
-    <t>奥迪Q3</t>
-  </si>
-  <si>
-    <t>别克GL8</t>
-  </si>
-  <si>
-    <t>速腾</t>
+    <t>召回数</t>
+  </si>
+  <si>
+    <t>广汽本田</t>
+  </si>
+  <si>
+    <t>东风本田</t>
+  </si>
+  <si>
+    <t>上汽通用</t>
+  </si>
+  <si>
+    <t>北京奔驰</t>
+  </si>
+  <si>
+    <t>一汽奥迪</t>
+  </si>
+  <si>
+    <t>浙江豪情</t>
+  </si>
+  <si>
+    <t>广汽丰田</t>
+  </si>
+  <si>
+    <t>奇瑞汽车</t>
+  </si>
+  <si>
+    <t>丰田汽车</t>
+  </si>
+  <si>
+    <t>广汽三菱</t>
+  </si>
+  <si>
+    <t>保时捷汽车</t>
+  </si>
+  <si>
+    <t>斯巴鲁汽车</t>
+  </si>
+  <si>
+    <t>东风小康</t>
+  </si>
+  <si>
+    <t>四川一汽丰田</t>
+  </si>
+  <si>
+    <t>神龙汽车(东风标致)</t>
+  </si>
+  <si>
+    <t>沃尔沃汽车</t>
+  </si>
+  <si>
+    <t>奔驰汽车</t>
+  </si>
+  <si>
+    <t>大众汽车</t>
+  </si>
+  <si>
+    <t>天津一汽丰田</t>
+  </si>
+  <si>
+    <t>福特汽车</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
+  </si>
+  <si>
+    <t>东风日产</t>
+  </si>
+  <si>
+    <t>特斯拉汽车</t>
+  </si>
+  <si>
+    <t>长安福特</t>
+  </si>
+  <si>
+    <t>现代汽车</t>
+  </si>
+  <si>
+    <t>大庆沃尔沃</t>
+  </si>
+  <si>
+    <t>一汽轿车</t>
+  </si>
+  <si>
+    <t>长安沃尔沃</t>
+  </si>
+  <si>
+    <t>奇瑞捷豹路虎</t>
+  </si>
+  <si>
+    <t>长安马自达</t>
+  </si>
+  <si>
+    <t>广汽菲克</t>
+  </si>
+  <si>
+    <t>奥迪汽车</t>
+  </si>
+  <si>
+    <t>克莱斯勒</t>
+  </si>
+  <si>
+    <t>捷豹汽车</t>
+  </si>
+  <si>
+    <t>福建奔驰</t>
+  </si>
+  <si>
+    <t>一汽马自达</t>
+  </si>
+  <si>
+    <t>理想汽车</t>
+  </si>
+  <si>
+    <t>宝马汽车</t>
+  </si>
+  <si>
+    <t>三菱汽车</t>
+  </si>
+  <si>
+    <t>日产汽车</t>
+  </si>
+  <si>
+    <t>路虎汽车</t>
+  </si>
+  <si>
+    <t>本田汽车</t>
+  </si>
+  <si>
+    <t>东风启辰</t>
+  </si>
+  <si>
+    <t>华晨宝马</t>
+  </si>
+  <si>
+    <t>东南汽车</t>
+  </si>
+  <si>
+    <t>力帆汽车</t>
+  </si>
+  <si>
+    <t>郑州日产</t>
+  </si>
+  <si>
+    <t>江西昌河汽车</t>
+  </si>
+  <si>
+    <t>一汽客车</t>
+  </si>
+  <si>
+    <t>北京现代</t>
+  </si>
+  <si>
+    <t>一汽大众</t>
+  </si>
+  <si>
+    <t>上汽大众</t>
+  </si>
+  <si>
+    <t>菲亚特汽车</t>
+  </si>
+  <si>
+    <t>威马汽车</t>
+  </si>
+  <si>
+    <t>福田戴姆勒</t>
+  </si>
+  <si>
+    <t>中车时代</t>
+  </si>
+  <si>
+    <t>广汽日野</t>
+  </si>
+  <si>
+    <t>双龙汽车</t>
+  </si>
+  <si>
+    <t>嘉陵-本田发动机有限公司</t>
+  </si>
+  <si>
+    <t>迈凯伦汽车</t>
+  </si>
+  <si>
+    <t>浙江飞碟</t>
+  </si>
+  <si>
+    <t>珠海广通</t>
+  </si>
+  <si>
+    <t>雅马哈</t>
+  </si>
+  <si>
+    <t>湖南江南汽车制造有限公司</t>
+  </si>
+  <si>
+    <t>杭州长江</t>
+  </si>
+  <si>
+    <t>江淮汽车</t>
+  </si>
+  <si>
+    <t>法拉利汽车</t>
+  </si>
+  <si>
+    <t>兰博基尼</t>
+  </si>
+  <si>
+    <t>中国重汽</t>
+  </si>
+  <si>
+    <t>宝腾汽车</t>
+  </si>
+  <si>
+    <t>戴姆勒卡客车</t>
+  </si>
+  <si>
+    <t>梁山鑫永成</t>
+  </si>
+  <si>
+    <t>宾利汽车</t>
+  </si>
+  <si>
+    <t>东风柳州</t>
+  </si>
+  <si>
+    <t>梁山盛源</t>
+  </si>
+  <si>
+    <t>河北长安</t>
+  </si>
+  <si>
+    <t>广汽长丰</t>
+  </si>
+  <si>
+    <t>东风汽车</t>
+  </si>
+  <si>
+    <t>山东天通</t>
   </si>
 </sst>
 </file>
@@ -36,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -50,13 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="华文宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFB5CEA8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -71,6 +302,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,17 +338,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +362,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -116,93 +431,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,25 +452,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,73 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,73 +630,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,22 +668,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,7 +692,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +727,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,168 +752,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -662,12 +908,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,13 +1231,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="14.025" customWidth="1"/>
   </cols>
@@ -1011,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>47345</v>
+        <v>983271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1019,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>78354</v>
+        <v>956825</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1027,7 +1271,615 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>88325</v>
+        <v>901525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>710604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>412490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>360908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>321320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>194352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>183413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>180888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>118270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>98438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>97524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>89928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>89898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>87150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>77913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>72560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>71935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>71466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>71319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>58484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>52495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>48939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>47398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>46743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>41684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
+        <v>37428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>34798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4">
+        <v>26382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>24111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4">
+        <v>23568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>19997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
+        <v>16792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
